--- a/Chi2-Werte.xlsx
+++ b/Chi2-Werte.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="21315" windowHeight="11055"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="21315" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chi2-Werte" sheetId="1" r:id="rId1"/>
+    <sheet name="Chi2-Werte (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="59">
   <si>
     <t>Env</t>
   </si>
@@ -122,13 +123,136 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Community Index</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Diversity Index</t>
+  </si>
+  <si>
+    <t>Age Class</t>
+  </si>
+  <si>
+    <t>SamCam</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>GWC</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Fertilisation</t>
+  </si>
+  <si>
+    <t>Prec</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>MI2-5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ʃ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ʃ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MI2-5</t>
+    </r>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>FUN</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>Age Class x SamCam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +387,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -618,18 +758,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -965,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A5:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1014,749 +1156,273 @@
     <col min="39" max="39" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
-      <c r="D1" s="3">
+    <row r="5" spans="1:39">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="4">
+      <c r="I5" s="2"/>
+      <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="2">
+      <c r="K5" s="3"/>
+      <c r="L5" s="2">
         <v>5</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
         <v>6</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="4">
+      <c r="O5" s="2"/>
+      <c r="P5" s="3">
         <v>7</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4">
         <v>8</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4">
         <v>9</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="2">
+      <c r="U5" s="4"/>
+      <c r="V5" s="2">
         <v>10</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="3">
+      <c r="W5" s="2"/>
+      <c r="X5" s="4">
         <v>11</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="2">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="2">
         <v>12</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
         <v>13</v>
       </c>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2">
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2">
         <v>14</v>
       </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="4">
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="3">
         <v>15</v>
       </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3">
         <v>16</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3">
         <v>17</v>
       </c>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4">
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3">
         <v>18</v>
       </c>
-      <c r="AM1" s="4"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>19.190000000000001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>1.25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>0.85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3">
-        <v>6.25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3">
-        <v>1.78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3">
-        <v>1.68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3">
-        <v>1.84</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3">
-        <v>5.98</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3">
-        <v>0.21</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3">
-        <v>0.13</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3">
-        <v>3.84</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3">
-        <v>1.6</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3">
-        <v>0.77</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3">
-        <v>0.9</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3">
-        <v>0.01</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3">
-        <v>0.09</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ3">
-        <v>1.55</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL3">
-        <v>0.9</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0.79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>4.42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>1.67</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4">
-        <v>21.37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4">
-        <v>4.25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4">
-        <v>2.87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4">
-        <v>11.03</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4">
-        <v>3.31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4">
-        <v>7.03</v>
-      </c>
-      <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4">
-        <v>0.91</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4">
-        <v>2.69</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4">
-        <v>0.25</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB4">
-        <v>2.75</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4">
-        <v>3.59</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF4">
-        <v>40.14</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH4">
-        <v>34.33</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ4">
-        <v>31.01</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL4">
-        <v>27.1</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3.08</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>0.03</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5">
-        <v>1.76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5">
-        <v>0.06</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5">
-        <v>0.08</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5">
-        <v>0.62</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5">
-        <v>0.13</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5">
-        <v>0.03</v>
-      </c>
-      <c r="U5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5">
-        <v>2.79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5">
-        <v>1.03</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB5">
-        <v>0.03</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD5">
-        <v>0.03</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ5">
-        <v>0.46</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL5">
-        <v>0.1</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>35</v>
-      </c>
+      <c r="AM5" s="3"/>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>0.37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6">
-        <v>0.93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6">
-        <v>0.05</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6">
-        <v>0.1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6">
-        <v>0.88</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6">
-        <v>0.34</v>
-      </c>
-      <c r="S6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6">
-        <v>0.01</v>
-      </c>
-      <c r="U6" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6">
-        <v>0.36</v>
-      </c>
-      <c r="W6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6">
-        <v>0.49</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6">
-        <v>0.11</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6">
-        <v>0.45</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH6">
-        <v>0.46</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ6">
-        <v>0.54</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>35</v>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.85</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7">
-        <v>1.85</v>
+        <v>0.85</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
       <c r="J7">
-        <v>7.73</v>
+        <v>6.25</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
       <c r="N7">
-        <v>2.72</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="s">
         <v>35</v>
       </c>
       <c r="P7">
+        <v>1.84</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7">
+        <v>5.98</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7">
+        <v>0.21</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7">
+        <v>0.13</v>
+      </c>
+      <c r="W7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7">
+        <v>3.84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7">
+        <v>1.6</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7">
+        <v>0.77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7">
+        <v>0.9</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF7">
         <v>0.01</v>
       </c>
-      <c r="Q7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7">
-        <v>0.69</v>
-      </c>
-      <c r="S7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7">
-        <v>0.01</v>
-      </c>
-      <c r="U7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7">
-        <v>1.22</v>
-      </c>
-      <c r="W7" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7">
-        <v>0.45</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7">
-        <v>1.28</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF7">
-        <v>0.8</v>
-      </c>
       <c r="AG7" t="s">
         <v>35</v>
       </c>
       <c r="AH7">
-        <v>0.63</v>
+        <v>0.09</v>
       </c>
       <c r="AI7" t="s">
         <v>35</v>
       </c>
       <c r="AJ7">
-        <v>0.11</v>
+        <v>1.55</v>
       </c>
       <c r="AK7" t="s">
         <v>35</v>
       </c>
       <c r="AL7">
-        <v>0.23</v>
+        <v>0.9</v>
       </c>
       <c r="AM7" t="s">
         <v>35</v>
@@ -1764,356 +1430,356 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3.98</v>
+        <v>0.79</v>
       </c>
       <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>4.42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>1.67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>21.37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>4.25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8">
+        <v>2.87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>11.03</v>
+      </c>
+      <c r="Q8" t="s">
         <v>34</v>
       </c>
-      <c r="F8">
-        <v>0.17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8">
-        <v>0.79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8">
-        <v>0.05</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8">
-        <v>0.69</v>
-      </c>
-      <c r="O8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>35</v>
-      </c>
       <c r="R8">
-        <v>3.74</v>
+        <v>3.31</v>
       </c>
       <c r="S8" t="s">
         <v>35</v>
       </c>
       <c r="T8">
-        <v>1.45</v>
+        <v>7.03</v>
       </c>
       <c r="U8" t="s">
         <v>35</v>
       </c>
       <c r="V8">
-        <v>0.57999999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="W8" t="s">
         <v>35</v>
       </c>
       <c r="X8">
-        <v>7.06</v>
+        <v>2.69</v>
       </c>
       <c r="Y8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z8">
-        <v>3.48</v>
+        <v>0.25</v>
       </c>
       <c r="AA8" t="s">
         <v>35</v>
       </c>
       <c r="AB8">
-        <v>0.17</v>
+        <v>2.75</v>
       </c>
       <c r="AC8" t="s">
         <v>35</v>
       </c>
       <c r="AD8">
-        <v>7.0000000000000007E-2</v>
+        <v>3.59</v>
       </c>
       <c r="AE8" t="s">
         <v>35</v>
       </c>
       <c r="AF8">
-        <v>0.86</v>
+        <v>40.14</v>
       </c>
       <c r="AG8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH8">
-        <v>0.68</v>
+        <v>34.33</v>
       </c>
       <c r="AI8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ8">
-        <v>7.0000000000000007E-2</v>
+        <v>31.01</v>
       </c>
       <c r="AK8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL8">
-        <v>0.12</v>
+        <v>27.1</v>
       </c>
       <c r="AM8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1.71</v>
+        <v>3.08</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
       <c r="J9">
-        <v>6.19</v>
+        <v>1.76</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L9">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
       </c>
       <c r="N9">
+        <v>0.08</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>0.62</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9">
+        <v>0.13</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9">
+        <v>0.03</v>
+      </c>
+      <c r="U9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>2.79</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9">
+        <v>1.03</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9">
+        <v>0.03</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9">
+        <v>0.03</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF9">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9">
-        <v>0.24</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9">
-        <v>1.54</v>
-      </c>
-      <c r="U9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9">
-        <v>0.52</v>
-      </c>
-      <c r="W9" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9">
-        <v>0.08</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9">
-        <v>0.49</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB9">
-        <v>2.23</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD9">
-        <v>2.64</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF9">
-        <v>3.43</v>
-      </c>
       <c r="AG9" t="s">
         <v>35</v>
       </c>
       <c r="AH9">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="s">
         <v>35</v>
       </c>
       <c r="AJ9">
-        <v>3</v>
+        <v>0.46</v>
       </c>
       <c r="AK9" t="s">
         <v>35</v>
       </c>
       <c r="AL9">
-        <v>4.21</v>
+        <v>0.1</v>
       </c>
       <c r="AM9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10">
-        <v>3.16</v>
+        <v>0.37</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10">
-        <v>1.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
       <c r="J10">
-        <v>7.26</v>
+        <v>0.93</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L10">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
       </c>
       <c r="N10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O10" t="s">
         <v>35</v>
       </c>
       <c r="P10">
-        <v>7.26</v>
+        <v>0.88</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R10">
+        <v>0.34</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10">
         <v>0.01</v>
       </c>
-      <c r="S10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10">
-        <v>2.56</v>
-      </c>
       <c r="U10" t="s">
         <v>35</v>
       </c>
       <c r="V10">
-        <v>0.81</v>
+        <v>0.36</v>
       </c>
       <c r="W10" t="s">
         <v>35</v>
       </c>
       <c r="X10">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="Y10" t="s">
         <v>35</v>
       </c>
       <c r="Z10">
-        <v>0.53</v>
+        <v>0.11</v>
       </c>
       <c r="AA10" t="s">
         <v>35</v>
       </c>
       <c r="AB10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="s">
         <v>35</v>
       </c>
       <c r="AD10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="s">
         <v>35</v>
       </c>
       <c r="AF10">
-        <v>1.34</v>
+        <v>0.45</v>
       </c>
       <c r="AG10" t="s">
         <v>35</v>
       </c>
       <c r="AH10">
-        <v>1.18</v>
+        <v>0.46</v>
       </c>
       <c r="AI10" t="s">
         <v>35</v>
       </c>
       <c r="AJ10">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="AK10" t="s">
         <v>35</v>
       </c>
       <c r="AL10">
-        <v>1.37</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AM10" t="s">
         <v>35</v>
@@ -2121,118 +1787,118 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.06</v>
+        <v>1.85</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11">
+        <v>1.44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>1.85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>7.73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <v>1.7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>2.72</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11">
         <v>0.01</v>
       </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>0.81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11">
-        <v>1.85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11">
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11">
+        <v>0.69</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11">
+        <v>0.01</v>
+      </c>
+      <c r="U11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11">
+        <v>1.22</v>
+      </c>
+      <c r="W11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11">
+        <v>0.45</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11">
+        <v>1.28</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11">
+        <v>0.8</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH11">
+        <v>0.63</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ11">
+        <v>0.11</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL11">
         <v>0.23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11">
-        <v>0.64</v>
-      </c>
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11">
-        <v>0.11</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11">
-        <v>0.66</v>
-      </c>
-      <c r="S11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11">
-        <v>1.06</v>
-      </c>
-      <c r="U11" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W11" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11">
-        <v>1.79</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11">
-        <v>1.48</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB11">
-        <v>0.21</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD11">
-        <v>0.1</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF11">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH11">
-        <v>1.55</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ11">
-        <v>1.99</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL11">
-        <v>0.62</v>
       </c>
       <c r="AM11" t="s">
         <v>35</v>
@@ -2240,388 +1906,2643 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>3.98</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
       </c>
       <c r="J12">
-        <v>3.85</v>
+        <v>0.05</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M12" t="s">
         <v>35</v>
       </c>
       <c r="N12">
-        <v>1.39</v>
+        <v>0.69</v>
       </c>
       <c r="O12" t="s">
         <v>35</v>
       </c>
       <c r="P12">
-        <v>1.32</v>
+        <v>0.1</v>
       </c>
       <c r="Q12" t="s">
         <v>35</v>
       </c>
       <c r="R12">
-        <v>7.45</v>
+        <v>3.74</v>
       </c>
       <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12">
+        <v>1.45</v>
+      </c>
+      <c r="U12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="W12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12">
+        <v>7.06</v>
+      </c>
+      <c r="Y12" t="s">
         <v>33</v>
       </c>
-      <c r="T12">
-        <v>6.44</v>
-      </c>
-      <c r="U12" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="W12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12">
-        <v>5.86</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>34</v>
-      </c>
       <c r="Z12">
-        <v>0.48</v>
+        <v>3.48</v>
       </c>
       <c r="AA12" t="s">
         <v>35</v>
       </c>
       <c r="AB12">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="AC12" t="s">
         <v>35</v>
       </c>
       <c r="AD12">
-        <v>0.41</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE12" t="s">
         <v>35</v>
       </c>
       <c r="AF12">
-        <v>9.7200000000000006</v>
+        <v>0.86</v>
       </c>
       <c r="AG12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AH12">
-        <v>10.54</v>
+        <v>0.68</v>
       </c>
       <c r="AI12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AJ12">
-        <v>4.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL12">
-        <v>5.37</v>
+        <v>0.12</v>
       </c>
       <c r="AM12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>1.71</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
       <c r="H13">
-        <v>1.0900000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
       </c>
       <c r="J13">
-        <v>0.41</v>
+        <v>6.19</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13">
-        <v>0.14000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="M13" t="s">
         <v>35</v>
       </c>
       <c r="N13">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>35</v>
       </c>
       <c r="P13">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="Q13" t="s">
         <v>35</v>
       </c>
       <c r="R13">
-        <v>0.76</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="s">
         <v>35</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U13" t="s">
         <v>35</v>
       </c>
       <c r="V13">
-        <v>1.43</v>
+        <v>0.52</v>
       </c>
       <c r="W13" t="s">
         <v>35</v>
       </c>
       <c r="X13">
-        <v>0.61</v>
+        <v>0.08</v>
       </c>
       <c r="Y13" t="s">
         <v>35</v>
       </c>
       <c r="Z13">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="AA13" t="s">
         <v>35</v>
       </c>
       <c r="AB13">
-        <v>0.13</v>
+        <v>2.23</v>
       </c>
       <c r="AC13" t="s">
         <v>35</v>
       </c>
       <c r="AD13">
-        <v>0.03</v>
+        <v>2.64</v>
       </c>
       <c r="AE13" t="s">
         <v>35</v>
       </c>
       <c r="AF13">
-        <v>0.1</v>
+        <v>3.43</v>
       </c>
       <c r="AG13" t="s">
         <v>35</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AI13" t="s">
         <v>35</v>
       </c>
       <c r="AJ13">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="AK13" t="s">
         <v>35</v>
       </c>
       <c r="AL13">
-        <v>0.15</v>
+        <v>4.21</v>
       </c>
       <c r="AM13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1.99</v>
+        <v>0.03</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14">
-        <v>2.4500000000000002</v>
+        <v>3.16</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14">
-        <v>2.63</v>
+        <v>1.23</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
       </c>
       <c r="J14">
-        <v>5.15</v>
+        <v>7.26</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L14">
-        <v>4.33</v>
+        <v>0.03</v>
       </c>
       <c r="M14" t="s">
         <v>35</v>
       </c>
       <c r="N14">
-        <v>4.5199999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="O14" t="s">
         <v>35</v>
       </c>
       <c r="P14">
-        <v>1.78</v>
+        <v>7.26</v>
       </c>
       <c r="Q14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R14">
-        <v>2.96</v>
+        <v>0.01</v>
       </c>
       <c r="S14" t="s">
         <v>35</v>
       </c>
       <c r="T14">
-        <v>3.66</v>
+        <v>2.56</v>
       </c>
       <c r="U14" t="s">
         <v>35</v>
       </c>
       <c r="V14">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
       </c>
       <c r="X14">
-        <v>4.16</v>
+        <v>0.66</v>
       </c>
       <c r="Y14" t="s">
         <v>35</v>
       </c>
       <c r="Z14">
-        <v>2.94</v>
+        <v>0.53</v>
       </c>
       <c r="AA14" t="s">
         <v>35</v>
       </c>
       <c r="AB14">
-        <v>2.82</v>
+        <v>0.02</v>
       </c>
       <c r="AC14" t="s">
         <v>35</v>
       </c>
       <c r="AD14">
-        <v>3.69</v>
+        <v>0.01</v>
       </c>
       <c r="AE14" t="s">
         <v>35</v>
       </c>
       <c r="AF14">
-        <v>49.3</v>
+        <v>1.34</v>
       </c>
       <c r="AG14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH14">
-        <v>45.76</v>
+        <v>1.18</v>
       </c>
       <c r="AI14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ14">
-        <v>106.01</v>
+        <v>0.31</v>
       </c>
       <c r="AK14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL14">
-        <v>34.200000000000003</v>
+        <v>1.37</v>
       </c>
       <c r="AM14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="J15" t="s">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.06</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>0.81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>1.85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <v>0.23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15">
+        <v>0.64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15">
+        <v>0.11</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15">
+        <v>0.66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15">
+        <v>1.06</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15">
+        <v>1.79</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15">
+        <v>1.48</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB15">
+        <v>0.21</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15">
+        <v>0.1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH15">
+        <v>1.55</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ15">
+        <v>1.99</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL15">
+        <v>0.62</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0.02</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>0.77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>3.85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16">
+        <v>0.11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16">
+        <v>1.39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16">
+        <v>1.32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16">
+        <v>7.45</v>
+      </c>
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16">
+        <v>6.44</v>
+      </c>
+      <c r="U16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X16">
+        <v>5.86</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16">
+        <v>0.48</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16">
+        <v>0.37</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16">
+        <v>0.41</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF16">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH16">
+        <v>10.54</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ16">
+        <v>4.09</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL16">
+        <v>5.37</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.01</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>0.54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>0.41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>0.77</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17">
+        <v>0.39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17">
+        <v>0.76</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17">
+        <v>1.43</v>
+      </c>
+      <c r="W17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17">
+        <v>0.61</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17">
+        <v>0.37</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17">
+        <v>0.13</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17">
+        <v>0.03</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF17">
+        <v>0.1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ17">
+        <v>0.01</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL17">
+        <v>0.15</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1.99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <v>2.63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18">
+        <v>5.15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18">
+        <v>4.33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18">
+        <v>1.78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18">
+        <v>2.96</v>
+      </c>
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18">
+        <v>3.66</v>
+      </c>
+      <c r="U18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18">
+        <v>0.84</v>
+      </c>
+      <c r="W18" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18">
+        <v>4.16</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18">
+        <v>2.94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB18">
+        <v>2.82</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18">
+        <v>3.69</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF18">
+        <v>49.3</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH18">
+        <v>45.76</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ18">
+        <v>106.01</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:AZ34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="1.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:52">
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="B6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7">
+        <v>0.77</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7">
+        <v>0.9</v>
+      </c>
+      <c r="V7">
+        <v>0.01</v>
+      </c>
+      <c r="W7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7">
+        <v>0.09</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7">
+        <v>1.55</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7">
+        <v>0.9</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0.79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8">
+        <v>2.75</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8">
+        <v>3.59</v>
+      </c>
+      <c r="V8">
+        <v>40.14</v>
+      </c>
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8">
+        <v>34.33</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8">
+        <v>31.01</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8">
+        <v>27.1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3.08</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9">
+        <v>0.03</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9">
+        <v>0.03</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9">
+        <v>0.46</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9">
+        <v>0.1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10">
+        <v>0.46</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10">
+        <v>0.54</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0.8</v>
+      </c>
+      <c r="W11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11">
+        <v>0.63</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11">
+        <v>0.11</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11">
+        <v>0.23</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3.98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12">
+        <v>0.17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V12">
+        <v>0.86</v>
+      </c>
+      <c r="W12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12">
+        <v>0.68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12">
+        <v>0.12</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1.71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13">
+        <v>2.23</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13">
+        <v>2.64</v>
+      </c>
+      <c r="V13">
+        <v>3.43</v>
+      </c>
+      <c r="W13" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13">
+        <v>0.79</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13">
+        <v>4.21</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14">
+        <v>0.02</v>
+      </c>
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14">
+        <v>0.01</v>
+      </c>
+      <c r="V14">
+        <v>1.34</v>
+      </c>
+      <c r="W14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14">
+        <v>1.18</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14">
+        <v>0.31</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB14">
+        <v>1.37</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.06</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15">
+        <v>0.21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15">
+        <v>0.1</v>
+      </c>
+      <c r="V15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="W15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15">
+        <v>1.55</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15">
+        <v>1.99</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB15">
+        <v>0.62</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="18">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16">
+        <v>0.37</v>
+      </c>
+      <c r="S16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16">
+        <v>0.41</v>
+      </c>
+      <c r="V16">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="W16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16">
+        <v>10.54</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16">
+        <v>4.09</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB16">
+        <v>5.37</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.01</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17">
+        <v>0.13</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17">
+        <v>0.03</v>
+      </c>
+      <c r="V17">
+        <v>0.1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17">
+        <v>0.01</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17">
+        <v>0.15</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1.99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18">
+        <v>2.82</v>
+      </c>
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18">
+        <v>3.69</v>
+      </c>
+      <c r="V18">
+        <v>49.3</v>
+      </c>
+      <c r="W18" t="s">
+        <v>32</v>
+      </c>
+      <c r="X18">
+        <v>45.76</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z18">
+        <v>106.01</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB18">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="AK19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="B22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23">
+        <v>1.25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>0.85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>1.78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23">
+        <v>1.68</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>6.25</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23">
+        <v>1.84</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23">
+        <v>3.84</v>
+      </c>
+      <c r="S23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23">
+        <v>0.21</v>
+      </c>
+      <c r="U23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23">
+        <v>0.13</v>
+      </c>
+      <c r="W23" t="s">
+        <v>35</v>
+      </c>
+      <c r="X23">
+        <v>5.98</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>4.42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>1.67</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24">
+        <v>4.25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <v>2.87</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24">
+        <v>21.37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24">
+        <v>11.03</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24">
+        <v>2.69</v>
+      </c>
+      <c r="S24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24">
+        <v>7.03</v>
+      </c>
+      <c r="U24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24">
+        <v>0.91</v>
+      </c>
+      <c r="W24" t="s">
+        <v>35</v>
+      </c>
+      <c r="X24">
+        <v>3.31</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1.03</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>0.03</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25">
+        <v>0.06</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25">
+        <v>0.08</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25">
+        <v>1.76</v>
+      </c>
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25">
+        <v>0.62</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25">
+        <v>2.79</v>
+      </c>
+      <c r="S25" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25">
+        <v>0.03</v>
+      </c>
+      <c r="U25" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W25" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25">
+        <v>0.13</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>0.37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>0.05</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26">
+        <v>0.1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>0.93</v>
+      </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26">
+        <v>0.88</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26">
+        <v>0.49</v>
+      </c>
+      <c r="S26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26">
+        <v>0.01</v>
+      </c>
+      <c r="U26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26">
+        <v>0.36</v>
+      </c>
+      <c r="W26" t="s">
+        <v>35</v>
+      </c>
+      <c r="X26">
+        <v>0.34</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1.28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>1.44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27">
+        <v>1.85</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>1.7</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27">
+        <v>2.72</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27">
+        <v>7.73</v>
+      </c>
+      <c r="O27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27">
+        <v>0.01</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27">
+        <v>0.45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27">
+        <v>0.01</v>
+      </c>
+      <c r="U27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27">
+        <v>1.22</v>
+      </c>
+      <c r="W27" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27">
+        <v>0.69</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3.48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>0.17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>0.79</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28">
+        <v>0.69</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28">
+        <v>0.05</v>
+      </c>
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28">
+        <v>7.06</v>
+      </c>
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28">
+        <v>1.45</v>
+      </c>
+      <c r="U28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="W28" t="s">
+        <v>35</v>
+      </c>
+      <c r="X28">
+        <v>3.74</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>0.32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>0.16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>0.24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <v>6.19</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29">
+        <v>0.24</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29">
+        <v>0.08</v>
+      </c>
+      <c r="S29" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29">
+        <v>1.54</v>
+      </c>
+      <c r="U29" t="s">
+        <v>35</v>
+      </c>
+      <c r="V29">
+        <v>0.52</v>
+      </c>
+      <c r="W29" t="s">
+        <v>35</v>
+      </c>
+      <c r="X29">
+        <v>1.7</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>3.16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>1.23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30">
+        <v>0.03</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30">
+        <v>0.4</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30">
+        <v>7.26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30">
+        <v>7.26</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30">
+        <v>0.66</v>
+      </c>
+      <c r="S30" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30">
+        <v>2.56</v>
+      </c>
+      <c r="U30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30">
+        <v>0.81</v>
+      </c>
+      <c r="W30" t="s">
+        <v>35</v>
+      </c>
+      <c r="X30">
+        <v>0.01</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1.48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>0.01</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>0.81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31">
+        <v>0.23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31">
+        <v>0.64</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>1.85</v>
+      </c>
+      <c r="O31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31">
+        <v>0.11</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31">
+        <v>1.79</v>
+      </c>
+      <c r="S31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31">
+        <v>1.06</v>
+      </c>
+      <c r="U31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W31" t="s">
+        <v>35</v>
+      </c>
+      <c r="X31">
+        <v>0.66</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" ht="18">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32">
+        <v>0.02</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>0.77</v>
+      </c>
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32">
+        <v>0.11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32">
+        <v>1.39</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32">
+        <v>3.85</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32">
+        <v>1.32</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32">
+        <v>5.86</v>
+      </c>
+      <c r="S32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32">
+        <v>6.44</v>
+      </c>
+      <c r="U32" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W32" t="s">
+        <v>35</v>
+      </c>
+      <c r="X32">
+        <v>7.45</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>0.54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33">
+        <v>0.77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33">
+        <v>0.41</v>
+      </c>
+      <c r="O33" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33">
+        <v>0.39</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33">
+        <v>0.61</v>
+      </c>
+      <c r="S33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V33">
+        <v>1.43</v>
+      </c>
+      <c r="W33" t="s">
+        <v>35</v>
+      </c>
+      <c r="X33">
+        <v>0.76</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>2.94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34">
+        <v>2.63</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34">
+        <v>4.33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34">
+        <v>5.15</v>
+      </c>
+      <c r="O34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34">
+        <v>1.78</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34">
+        <v>4.16</v>
+      </c>
+      <c r="S34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34">
+        <v>3.66</v>
+      </c>
+      <c r="U34" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34">
+        <v>0.84</v>
+      </c>
+      <c r="W34" t="s">
+        <v>35</v>
+      </c>
+      <c r="X34">
+        <v>2.96</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>